--- a/teaching/traditional_assets/database/data/venezuela/venezuela_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/venezuela/venezuela_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>8.673500000000001</v>
+        <v>1.9445</v>
       </c>
       <c r="E2">
-        <v>7.816</v>
+        <v>1.575</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19955.7</v>
+        <v>58.082</v>
       </c>
       <c r="L2">
-        <v>0.4271413037894484</v>
+        <v>0.4313233328382594</v>
       </c>
       <c r="M2">
-        <v>47.315</v>
+        <v>0.006</v>
       </c>
       <c r="N2">
-        <v>0.04338437557307904</v>
+        <v>8.178286648947045e-07</v>
       </c>
       <c r="O2">
-        <v>0.002371001768918154</v>
+        <v>0.0001033022278847147</v>
       </c>
       <c r="P2">
-        <v>47.315</v>
+        <v>0.006</v>
       </c>
       <c r="Q2">
-        <v>0.04338437557307904</v>
+        <v>8.178286648947045e-07</v>
       </c>
       <c r="R2">
-        <v>0.002371001768918154</v>
+        <v>0.0001033022278847147</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>147060.3</v>
+        <v>347.9</v>
       </c>
       <c r="V2">
-        <v>134.8434806528517</v>
+        <v>0.04742043208614462</v>
       </c>
       <c r="W2">
-        <v>52.54580924077484</v>
+        <v>0.06803840452838764</v>
       </c>
       <c r="X2">
-        <v>0.1111944531089941</v>
+        <v>0.1238511038859222</v>
       </c>
       <c r="Y2">
-        <v>52.43461478766584</v>
+        <v>-0.05581269935753456</v>
       </c>
       <c r="Z2">
-        <v>-33.23364964645962</v>
+        <v>-0.982131135584567</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.1111958480284853</v>
+        <v>0.1238517623429393</v>
       </c>
       <c r="AC2">
-        <v>-0.1111958480284853</v>
+        <v>-0.1238517623429393</v>
       </c>
       <c r="AD2">
-        <v>221.243</v>
+        <v>1.346</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>221.243</v>
+        <v>1.346</v>
       </c>
       <c r="AG2">
-        <v>-146839.057</v>
+        <v>-346.554</v>
       </c>
       <c r="AH2">
-        <v>0.1686505168682533</v>
+        <v>0.0001834325768079625</v>
       </c>
       <c r="AI2">
-        <v>0.002416096206938739</v>
+        <v>0.006983646023576292</v>
       </c>
       <c r="AJ2">
-        <v>1.007482755031842</v>
+        <v>-0.04957892378567731</v>
       </c>
       <c r="AK2">
-        <v>2.646232391624292</v>
+        <v>2.233469103658065</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banco Provincial, S.A. Banco Universal (CCSE:BPV)</t>
+          <t>Mercantil Servicios Financieros, C.A. (CCSE:MVZ.B)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>2.054</v>
+        <v>2.575</v>
       </c>
       <c r="E3">
-        <v>1.961</v>
+        <v>2.981</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,58 +731,61 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>54.1</v>
       </c>
       <c r="L3">
-        <v>0.4661016949152542</v>
+        <v>0.4967860422405877</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>2.447381302006853e-06</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.848428835489834e-05</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>2.447381302006853e-06</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>1.848428835489834e-05</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>131.1</v>
+        <v>128.4</v>
       </c>
       <c r="V3">
-        <v>0.4352589641434263</v>
+        <v>0.3142437591776799</v>
       </c>
       <c r="W3">
-        <v>0.005972418286458899</v>
+        <v>0.6320093457943926</v>
       </c>
       <c r="X3">
-        <v>0.1111878759758618</v>
+        <v>0.1238467486970918</v>
       </c>
       <c r="Y3">
-        <v>-0.1052154576894029</v>
+        <v>0.5081625970973008</v>
       </c>
       <c r="Z3">
-        <v>-0.0141139883978231</v>
+        <v>-1.930851063829787</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.1111878759758618</v>
+        <v>0.1238467486970918</v>
       </c>
       <c r="AC3">
-        <v>-0.1111878759758618</v>
+        <v>-0.1238467486970918</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -794,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-131.1</v>
+        <v>-128.4</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -803,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.7707231040564374</v>
+        <v>-0.4582441113490364</v>
       </c>
       <c r="AK3">
-        <v>2.16694214876033</v>
+        <v>2.562874251497006</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -823,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Banco Nacional de Crédito, C.A., Banco Universal (CCSE:BNC)</t>
+          <t>Banco Provincial, S.A. Banco Universal (CCSE:BPV)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -832,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>17.577</v>
+        <v>1.43</v>
       </c>
       <c r="E4">
-        <v>20.59</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -850,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16291.5</v>
+        <v>1.7</v>
       </c>
       <c r="L4">
-        <v>0.5616712750039647</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -877,31 +880,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>125313.1</v>
+        <v>138.9</v>
       </c>
       <c r="V4">
-        <v>1907.353120243531</v>
+        <v>0.8170588235294118</v>
       </c>
       <c r="W4">
-        <v>319.4411764705882</v>
+        <v>0.02407932011331445</v>
       </c>
       <c r="X4">
-        <v>0.1111878759758618</v>
+        <v>0.1238467486970918</v>
       </c>
       <c r="Y4">
-        <v>319.3299885946124</v>
+        <v>-0.09976742858377738</v>
       </c>
       <c r="Z4">
-        <v>-17061.99999999997</v>
+        <v>-0.2264462809917355</v>
       </c>
       <c r="AA4">
         <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.1111878759758618</v>
+        <v>0.1238467486970918</v>
       </c>
       <c r="AC4">
-        <v>-0.1111878759758618</v>
+        <v>-0.1238467486970918</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-125313.1</v>
+        <v>-138.9</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -922,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1.000524561787311</v>
+        <v>-4.466237942122188</v>
       </c>
       <c r="AK4">
-        <v>2.400643297483898</v>
+        <v>2.225961538461538</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -942,7 +945,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mercantil Servicios Financieros, C.A. (CCSE:MVZ.B)</t>
+          <t>Banco Nacional de Crédito, C.A., Banco Universal (CCSE:BNC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -951,10 +954,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>3.367</v>
+        <v>2.021</v>
       </c>
       <c r="E5">
-        <v>3.802</v>
+        <v>2.08</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -969,85 +972,82 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>85.40000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="L5">
-        <v>0.5330836454431961</v>
+        <v>0.2772585669781932</v>
       </c>
       <c r="M5">
-        <v>0.015</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>2.272727272727273e-05</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.0001756440281030445</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0.015</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>2.272727272727273e-05</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.0001756440281030445</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>142</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="V5">
-        <v>0.2151515151515151</v>
+        <v>0.01015457181054813</v>
       </c>
       <c r="W5">
-        <v>0.1563243639026176</v>
+        <v>0.06425992779783393</v>
       </c>
       <c r="X5">
-        <v>0.1112010302421264</v>
+        <v>0.1238554590747526</v>
       </c>
       <c r="Y5">
-        <v>0.04512333366049127</v>
+        <v>-0.05959553127691865</v>
       </c>
       <c r="Z5">
-        <v>0.4722459688117208</v>
+        <v>-0.3258883248730964</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.1112038200811088</v>
+        <v>0.1238567759887867</v>
       </c>
       <c r="AC5">
-        <v>-0.1112038200811088</v>
+        <v>-0.1238567759887867</v>
       </c>
       <c r="AD5">
-        <v>0.143</v>
+        <v>0.767</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.143</v>
+        <v>0.767</v>
       </c>
       <c r="AG5">
-        <v>-141.857</v>
+        <v>-66.833</v>
       </c>
       <c r="AH5">
-        <v>0.0002166197323913152</v>
+        <v>0.0001152020609603646</v>
       </c>
       <c r="AI5">
-        <v>0.001665831809233135</v>
+        <v>0.02559482096973337</v>
       </c>
       <c r="AJ5">
-        <v>-0.2737796322636801</v>
+        <v>-0.01014116726985416</v>
       </c>
       <c r="AK5">
-        <v>2.526078672293748</v>
+        <v>1.775914755666569</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>13.98</v>
+        <v>1.868</v>
       </c>
       <c r="E6">
-        <v>11.83</v>
+        <v>1.07</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1091,28 +1091,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3567.8</v>
+        <v>0.502</v>
       </c>
       <c r="L6">
-        <v>0.2035253850541928</v>
+        <v>0.08900709219858156</v>
       </c>
       <c r="M6">
-        <v>47.3</v>
+        <v>0.005</v>
       </c>
       <c r="N6">
-        <v>0.7425431711145996</v>
+        <v>4.96031746031746e-05</v>
       </c>
       <c r="O6">
-        <v>0.01325746958910253</v>
+        <v>0.009960159362549801</v>
       </c>
       <c r="P6">
-        <v>47.3</v>
+        <v>0.005</v>
       </c>
       <c r="Q6">
-        <v>0.7425431711145996</v>
+        <v>4.96031746031746e-05</v>
       </c>
       <c r="R6">
-        <v>0.01325746958910253</v>
+        <v>0.009960159362549801</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1121,55 +1121,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>21474.1</v>
+        <v>13</v>
       </c>
       <c r="V6">
-        <v>337.1130298273155</v>
+        <v>0.128968253968254</v>
       </c>
       <c r="W6">
-        <v>104.9352941176471</v>
+        <v>0.07181688125894134</v>
       </c>
       <c r="X6">
-        <v>0.3219166481839247</v>
+        <v>0.1242810036033131</v>
       </c>
       <c r="Y6">
-        <v>104.6133774694631</v>
+        <v>-0.05246412234437177</v>
       </c>
       <c r="Z6">
-        <v>-246.1732902682208</v>
+        <v>-11.05882352941177</v>
       </c>
       <c r="AA6">
         <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0.1683292784034972</v>
+        <v>0.1243438603696422</v>
       </c>
       <c r="AC6">
-        <v>-0.1683292784034972</v>
+        <v>-0.1243438603696422</v>
       </c>
       <c r="AD6">
-        <v>221.1</v>
+        <v>0.579</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>221.1</v>
+        <v>0.579</v>
       </c>
       <c r="AG6">
-        <v>-21253</v>
+        <v>-12.421</v>
       </c>
       <c r="AH6">
-        <v>0.7763342696629213</v>
+        <v>0.005711241973189714</v>
       </c>
       <c r="AI6">
-        <v>0.01208150507904069</v>
+        <v>0.07265654410842012</v>
       </c>
       <c r="AJ6">
-        <v>1.003006234278622</v>
+        <v>-0.1405424365516695</v>
       </c>
       <c r="AK6">
-        <v>6.697233251402278</v>
+        <v>2.468892864241702</v>
       </c>
       <c r="AL6">
         <v>0</v>
